--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Plau-St14.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Plau-St14.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.85315674247837</v>
+        <v>11.46594833333333</v>
       </c>
       <c r="H2">
-        <v>4.85315674247837</v>
+        <v>34.397845</v>
       </c>
       <c r="I2">
-        <v>0.01678344864242326</v>
+        <v>0.0374233929424224</v>
       </c>
       <c r="J2">
-        <v>0.01678344864242326</v>
+        <v>0.03742339294242241</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.114460197996869</v>
+        <v>0.4567773333333333</v>
       </c>
       <c r="N2">
-        <v>0.114460197996869</v>
+        <v>1.370332</v>
       </c>
       <c r="O2">
-        <v>0.06001672635972985</v>
+        <v>0.1895538526892628</v>
       </c>
       <c r="P2">
-        <v>0.06001672635972985</v>
+        <v>0.1895538526892628</v>
       </c>
       <c r="Q2">
-        <v>0.555493281653914</v>
+        <v>5.237385303837777</v>
       </c>
       <c r="R2">
-        <v>0.555493281653914</v>
+        <v>47.13646773453999</v>
       </c>
       <c r="S2">
-        <v>0.001007287644544896</v>
+        <v>0.00709374831294033</v>
       </c>
       <c r="T2">
-        <v>0.001007287644544896</v>
+        <v>0.007093748312940333</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.85315674247837</v>
+        <v>11.46594833333333</v>
       </c>
       <c r="H3">
-        <v>4.85315674247837</v>
+        <v>34.397845</v>
       </c>
       <c r="I3">
-        <v>0.01678344864242326</v>
+        <v>0.0374233929424224</v>
       </c>
       <c r="J3">
-        <v>0.01678344864242326</v>
+        <v>0.03742339294242241</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.145393928585552</v>
+        <v>0.1545113333333333</v>
       </c>
       <c r="N3">
-        <v>0.145393928585552</v>
+        <v>0.463534</v>
       </c>
       <c r="O3">
-        <v>0.07623669868650651</v>
+        <v>0.06411924668800315</v>
       </c>
       <c r="P3">
-        <v>0.07623669868650651</v>
+        <v>0.06411924668800315</v>
       </c>
       <c r="Q3">
-        <v>0.7056195248303903</v>
+        <v>1.771618964914444</v>
       </c>
       <c r="R3">
-        <v>0.7056195248303903</v>
+        <v>15.94457068423</v>
       </c>
       <c r="S3">
-        <v>0.001279514717072879</v>
+        <v>0.002399559763977258</v>
       </c>
       <c r="T3">
-        <v>0.001279514717072879</v>
+        <v>0.002399559763977259</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.85315674247837</v>
+        <v>11.46594833333333</v>
       </c>
       <c r="H4">
-        <v>4.85315674247837</v>
+        <v>34.397845</v>
       </c>
       <c r="I4">
-        <v>0.01678344864242326</v>
+        <v>0.0374233929424224</v>
       </c>
       <c r="J4">
-        <v>0.01678344864242326</v>
+        <v>0.03742339294242241</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.210709040717678</v>
+        <v>0.2309933333333333</v>
       </c>
       <c r="N4">
-        <v>0.210709040717678</v>
+        <v>0.6929799999999999</v>
       </c>
       <c r="O4">
-        <v>0.1104844047065162</v>
+        <v>0.09585781316980505</v>
       </c>
       <c r="P4">
-        <v>0.1104844047065162</v>
+        <v>0.09585781316980505</v>
       </c>
       <c r="Q4">
-        <v>1.022604001660148</v>
+        <v>2.648557625344444</v>
       </c>
       <c r="R4">
-        <v>1.022604001660148</v>
+        <v>23.83701862809999</v>
       </c>
       <c r="S4">
-        <v>0.001854309332180522</v>
+        <v>0.003587324608854927</v>
       </c>
       <c r="T4">
-        <v>0.001854309332180522</v>
+        <v>0.003587324608854928</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.85315674247837</v>
+        <v>11.46594833333333</v>
       </c>
       <c r="H5">
-        <v>4.85315674247837</v>
+        <v>34.397845</v>
       </c>
       <c r="I5">
-        <v>0.01678344864242326</v>
+        <v>0.0374233929424224</v>
       </c>
       <c r="J5">
-        <v>0.01678344864242326</v>
+        <v>0.03742339294242241</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.535560500552094</v>
+        <v>0.577883</v>
       </c>
       <c r="N5">
-        <v>0.535560500552094</v>
+        <v>1.733649</v>
       </c>
       <c r="O5">
-        <v>0.2808189097453266</v>
+        <v>0.2398103869433741</v>
       </c>
       <c r="P5">
-        <v>0.2808189097453266</v>
+        <v>0.2398103869433741</v>
       </c>
       <c r="Q5">
-        <v>2.599159054259486</v>
+        <v>6.625976620711666</v>
       </c>
       <c r="R5">
-        <v>2.599159054259486</v>
+        <v>59.63378958640499</v>
       </c>
       <c r="S5">
-        <v>0.004713109749531983</v>
+        <v>0.00897451834225625</v>
       </c>
       <c r="T5">
-        <v>0.004713109749531983</v>
+        <v>0.008974518342256254</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.85315674247837</v>
+        <v>11.46594833333333</v>
       </c>
       <c r="H6">
-        <v>4.85315674247837</v>
+        <v>34.397845</v>
       </c>
       <c r="I6">
-        <v>0.01678344864242326</v>
+        <v>0.0374233929424224</v>
       </c>
       <c r="J6">
-        <v>0.01678344864242326</v>
+        <v>0.03742339294242241</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.5925860760203771</v>
+        <v>0.605417</v>
       </c>
       <c r="N6">
-        <v>0.5925860760203771</v>
+        <v>1.816251</v>
       </c>
       <c r="O6">
-        <v>0.3107200318670941</v>
+        <v>0.2512364700676377</v>
       </c>
       <c r="P6">
-        <v>0.3107200318670941</v>
+        <v>0.2512364700676378</v>
       </c>
       <c r="Q6">
-        <v>2.875913110337093</v>
+        <v>6.941680042121665</v>
       </c>
       <c r="R6">
-        <v>2.875913110337093</v>
+        <v>62.475120379095</v>
       </c>
       <c r="S6">
-        <v>0.005214953697013494</v>
+        <v>0.009402121140808349</v>
       </c>
       <c r="T6">
-        <v>0.005214953697013494</v>
+        <v>0.009402121140808354</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.85315674247837</v>
+        <v>11.46594833333333</v>
       </c>
       <c r="H7">
-        <v>4.85315674247837</v>
+        <v>34.397845</v>
       </c>
       <c r="I7">
-        <v>0.01678344864242326</v>
+        <v>0.0374233929424224</v>
       </c>
       <c r="J7">
-        <v>0.01678344864242326</v>
+        <v>0.03742339294242241</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.308428564718512</v>
+        <v>0.3841676666666666</v>
       </c>
       <c r="N7">
-        <v>0.308428564718512</v>
+        <v>1.152503</v>
       </c>
       <c r="O7">
-        <v>0.1617232286348265</v>
+        <v>0.1594222304419173</v>
       </c>
       <c r="P7">
-        <v>0.1617232286348265</v>
+        <v>0.1594222304419173</v>
       </c>
       <c r="Q7">
-        <v>1.496852168436573</v>
+        <v>4.404846617337221</v>
       </c>
       <c r="R7">
-        <v>1.496852168436573</v>
+        <v>39.64361955603499</v>
       </c>
       <c r="S7">
-        <v>0.002714273502079487</v>
+        <v>0.005966120773585284</v>
       </c>
       <c r="T7">
-        <v>0.002714273502079487</v>
+        <v>0.005966120773585285</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>113.38268979299</v>
+        <v>113.9117636666667</v>
       </c>
       <c r="H8">
-        <v>113.38268979299</v>
+        <v>341.735291</v>
       </c>
       <c r="I8">
-        <v>0.3921061387579813</v>
+        <v>0.3717934677996853</v>
       </c>
       <c r="J8">
-        <v>0.3921061387579813</v>
+        <v>0.3717934677996854</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.114460197996869</v>
+        <v>0.4567773333333333</v>
       </c>
       <c r="N8">
-        <v>0.114460197996869</v>
+        <v>1.370332</v>
       </c>
       <c r="O8">
-        <v>0.06001672635972985</v>
+        <v>0.1895538526892628</v>
       </c>
       <c r="P8">
-        <v>0.06001672635972985</v>
+        <v>0.1895538526892628</v>
       </c>
       <c r="Q8">
-        <v>12.97780512312321</v>
+        <v>52.03231164295688</v>
       </c>
       <c r="R8">
-        <v>12.97780512312321</v>
+        <v>468.2908047866119</v>
       </c>
       <c r="S8">
-        <v>0.02353292683380803</v>
+        <v>0.0704748842261317</v>
       </c>
       <c r="T8">
-        <v>0.02353292683380803</v>
+        <v>0.07047488422613171</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>113.38268979299</v>
+        <v>113.9117636666667</v>
       </c>
       <c r="H9">
-        <v>113.38268979299</v>
+        <v>341.735291</v>
       </c>
       <c r="I9">
-        <v>0.3921061387579813</v>
+        <v>0.3717934677996853</v>
       </c>
       <c r="J9">
-        <v>0.3921061387579813</v>
+        <v>0.3717934677996854</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.145393928585552</v>
+        <v>0.1545113333333333</v>
       </c>
       <c r="N9">
-        <v>0.145393928585552</v>
+        <v>0.463534</v>
       </c>
       <c r="O9">
-        <v>0.07623669868650651</v>
+        <v>0.06411924668800315</v>
       </c>
       <c r="P9">
-        <v>0.07623669868650651</v>
+        <v>0.06411924668800315</v>
       </c>
       <c r="Q9">
-        <v>16.48515470259979</v>
+        <v>17.60065848648822</v>
       </c>
       <c r="R9">
-        <v>16.48515470259979</v>
+        <v>158.405926378394</v>
       </c>
       <c r="S9">
-        <v>0.02989287755362173</v>
+        <v>0.02383911707883618</v>
       </c>
       <c r="T9">
-        <v>0.02989287755362173</v>
+        <v>0.02383911707883618</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>113.38268979299</v>
+        <v>113.9117636666667</v>
       </c>
       <c r="H10">
-        <v>113.38268979299</v>
+        <v>341.735291</v>
       </c>
       <c r="I10">
-        <v>0.3921061387579813</v>
+        <v>0.3717934677996853</v>
       </c>
       <c r="J10">
-        <v>0.3921061387579813</v>
+        <v>0.3717934677996854</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.210709040717678</v>
+        <v>0.2309933333333333</v>
       </c>
       <c r="N10">
-        <v>0.210709040717678</v>
+        <v>0.6929799999999999</v>
       </c>
       <c r="O10">
-        <v>0.1104844047065162</v>
+        <v>0.09585781316980505</v>
       </c>
       <c r="P10">
-        <v>0.1104844047065162</v>
+        <v>0.09585781316980505</v>
       </c>
       <c r="Q10">
-        <v>23.89075780027098</v>
+        <v>26.31285799524222</v>
       </c>
       <c r="R10">
-        <v>23.89075780027098</v>
+        <v>236.81572195718</v>
       </c>
       <c r="S10">
-        <v>0.04332161332244622</v>
+        <v>0.03563930877409616</v>
       </c>
       <c r="T10">
-        <v>0.04332161332244622</v>
+        <v>0.03563930877409617</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>113.38268979299</v>
+        <v>113.9117636666667</v>
       </c>
       <c r="H11">
-        <v>113.38268979299</v>
+        <v>341.735291</v>
       </c>
       <c r="I11">
-        <v>0.3921061387579813</v>
+        <v>0.3717934677996853</v>
       </c>
       <c r="J11">
-        <v>0.3921061387579813</v>
+        <v>0.3717934677996854</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.535560500552094</v>
+        <v>0.577883</v>
       </c>
       <c r="N11">
-        <v>0.535560500552094</v>
+        <v>1.733649</v>
       </c>
       <c r="O11">
-        <v>0.2808189097453266</v>
+        <v>0.2398103869433741</v>
       </c>
       <c r="P11">
-        <v>0.2808189097453266</v>
+        <v>0.2398103869433741</v>
       </c>
       <c r="Q11">
-        <v>60.72329009947653</v>
+        <v>65.82767172298433</v>
       </c>
       <c r="R11">
-        <v>60.72329009947653</v>
+        <v>592.449045506859</v>
       </c>
       <c r="S11">
-        <v>0.1101108183904661</v>
+        <v>0.08915993537606143</v>
       </c>
       <c r="T11">
-        <v>0.1101108183904661</v>
+        <v>0.08915993537606144</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>113.38268979299</v>
+        <v>113.9117636666667</v>
       </c>
       <c r="H12">
-        <v>113.38268979299</v>
+        <v>341.735291</v>
       </c>
       <c r="I12">
-        <v>0.3921061387579813</v>
+        <v>0.3717934677996853</v>
       </c>
       <c r="J12">
-        <v>0.3921061387579813</v>
+        <v>0.3717934677996854</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.5925860760203771</v>
+        <v>0.605417</v>
       </c>
       <c r="N12">
-        <v>0.5925860760203771</v>
+        <v>1.816251</v>
       </c>
       <c r="O12">
-        <v>0.3107200318670941</v>
+        <v>0.2512364700676377</v>
       </c>
       <c r="P12">
-        <v>0.3107200318670941</v>
+        <v>0.2512364700676378</v>
       </c>
       <c r="Q12">
-        <v>67.1890032330636</v>
+        <v>68.96411822378232</v>
       </c>
       <c r="R12">
-        <v>67.1890032330636</v>
+        <v>620.677064014041</v>
       </c>
       <c r="S12">
-        <v>0.1218352319301632</v>
+        <v>0.09340807844419886</v>
       </c>
       <c r="T12">
-        <v>0.1218352319301632</v>
+        <v>0.09340807844419891</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>113.38268979299</v>
+        <v>113.9117636666667</v>
       </c>
       <c r="H13">
-        <v>113.38268979299</v>
+        <v>341.735291</v>
       </c>
       <c r="I13">
-        <v>0.3921061387579813</v>
+        <v>0.3717934677996853</v>
       </c>
       <c r="J13">
-        <v>0.3921061387579813</v>
+        <v>0.3717934677996854</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.308428564718512</v>
+        <v>0.3841676666666666</v>
       </c>
       <c r="N13">
-        <v>0.308428564718512</v>
+        <v>1.152503</v>
       </c>
       <c r="O13">
-        <v>0.1617232286348265</v>
+        <v>0.1594222304419173</v>
       </c>
       <c r="P13">
-        <v>0.1617232286348265</v>
+        <v>0.1594222304419173</v>
       </c>
       <c r="Q13">
-        <v>34.97046027677619</v>
+        <v>43.7612164537081</v>
       </c>
       <c r="R13">
-        <v>34.97046027677619</v>
+        <v>393.8509480833729</v>
       </c>
       <c r="S13">
-        <v>0.06341267072747603</v>
+        <v>0.05927214390036098</v>
       </c>
       <c r="T13">
-        <v>0.06341267072747603</v>
+        <v>0.05927214390036098</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>55.6289417036478</v>
+        <v>61.749762</v>
       </c>
       <c r="H14">
-        <v>55.6289417036478</v>
+        <v>185.249286</v>
       </c>
       <c r="I14">
-        <v>0.1923790093041059</v>
+        <v>0.2015433473312409</v>
       </c>
       <c r="J14">
-        <v>0.1923790093041059</v>
+        <v>0.201543347331241</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.114460197996869</v>
+        <v>0.4567773333333333</v>
       </c>
       <c r="N14">
-        <v>0.114460197996869</v>
+        <v>1.370332</v>
       </c>
       <c r="O14">
-        <v>0.06001672635972985</v>
+        <v>0.1895538526892628</v>
       </c>
       <c r="P14">
-        <v>0.06001672635972985</v>
+        <v>0.1895538526892628</v>
       </c>
       <c r="Q14">
-        <v>6.36729968175581</v>
+        <v>28.205891620328</v>
       </c>
       <c r="R14">
-        <v>6.36729968175581</v>
+        <v>253.8530245829519</v>
       </c>
       <c r="S14">
-        <v>0.01154595835876045</v>
+        <v>0.03820331797052696</v>
       </c>
       <c r="T14">
-        <v>0.01154595835876045</v>
+        <v>0.03820331797052696</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>55.6289417036478</v>
+        <v>61.749762</v>
       </c>
       <c r="H15">
-        <v>55.6289417036478</v>
+        <v>185.249286</v>
       </c>
       <c r="I15">
-        <v>0.1923790093041059</v>
+        <v>0.2015433473312409</v>
       </c>
       <c r="J15">
-        <v>0.1923790093041059</v>
+        <v>0.201543347331241</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.145393928585552</v>
+        <v>0.1545113333333333</v>
       </c>
       <c r="N15">
-        <v>0.145393928585552</v>
+        <v>0.463534</v>
       </c>
       <c r="O15">
-        <v>0.07623669868650651</v>
+        <v>0.06411924668800315</v>
       </c>
       <c r="P15">
-        <v>0.07623669868650651</v>
+        <v>0.06411924668800315</v>
       </c>
       <c r="Q15">
-        <v>8.088110377350004</v>
+        <v>9.541038059636</v>
       </c>
       <c r="R15">
-        <v>8.088110377350004</v>
+        <v>85.86934253672399</v>
       </c>
       <c r="S15">
-        <v>0.01466634056592575</v>
+        <v>0.01292280760585774</v>
       </c>
       <c r="T15">
-        <v>0.01466634056592575</v>
+        <v>0.01292280760585774</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>55.6289417036478</v>
+        <v>61.749762</v>
       </c>
       <c r="H16">
-        <v>55.6289417036478</v>
+        <v>185.249286</v>
       </c>
       <c r="I16">
-        <v>0.1923790093041059</v>
+        <v>0.2015433473312409</v>
       </c>
       <c r="J16">
-        <v>0.1923790093041059</v>
+        <v>0.201543347331241</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.210709040717678</v>
+        <v>0.2309933333333333</v>
       </c>
       <c r="N16">
-        <v>0.210709040717678</v>
+        <v>0.6929799999999999</v>
       </c>
       <c r="O16">
-        <v>0.1104844047065162</v>
+        <v>0.09585781316980505</v>
       </c>
       <c r="P16">
-        <v>0.1104844047065162</v>
+        <v>0.09585781316980505</v>
       </c>
       <c r="Q16">
-        <v>11.72152094251526</v>
+        <v>14.26378335692</v>
       </c>
       <c r="R16">
-        <v>11.72152094251526</v>
+        <v>128.37405021228</v>
       </c>
       <c r="S16">
-        <v>0.02125488032099349</v>
+        <v>0.01931950453409522</v>
       </c>
       <c r="T16">
-        <v>0.02125488032099349</v>
+        <v>0.01931950453409522</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>55.6289417036478</v>
+        <v>61.749762</v>
       </c>
       <c r="H17">
-        <v>55.6289417036478</v>
+        <v>185.249286</v>
       </c>
       <c r="I17">
-        <v>0.1923790093041059</v>
+        <v>0.2015433473312409</v>
       </c>
       <c r="J17">
-        <v>0.1923790093041059</v>
+        <v>0.201543347331241</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.535560500552094</v>
+        <v>0.577883</v>
       </c>
       <c r="N17">
-        <v>0.535560500552094</v>
+        <v>1.733649</v>
       </c>
       <c r="O17">
-        <v>0.2808189097453266</v>
+        <v>0.2398103869433741</v>
       </c>
       <c r="P17">
-        <v>0.2808189097453266</v>
+        <v>0.2398103869433741</v>
       </c>
       <c r="Q17">
-        <v>29.79266386398887</v>
+        <v>35.684137713846</v>
       </c>
       <c r="R17">
-        <v>29.79266386398887</v>
+        <v>321.157239424614</v>
       </c>
       <c r="S17">
-        <v>0.05402366365066506</v>
+        <v>0.04833218810936773</v>
       </c>
       <c r="T17">
-        <v>0.05402366365066506</v>
+        <v>0.04833218810936774</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>55.6289417036478</v>
+        <v>61.749762</v>
       </c>
       <c r="H18">
-        <v>55.6289417036478</v>
+        <v>185.249286</v>
       </c>
       <c r="I18">
-        <v>0.1923790093041059</v>
+        <v>0.2015433473312409</v>
       </c>
       <c r="J18">
-        <v>0.1923790093041059</v>
+        <v>0.201543347331241</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.5925860760203771</v>
+        <v>0.605417</v>
       </c>
       <c r="N18">
-        <v>0.5925860760203771</v>
+        <v>1.816251</v>
       </c>
       <c r="O18">
-        <v>0.3107200318670941</v>
+        <v>0.2512364700676377</v>
       </c>
       <c r="P18">
-        <v>0.3107200318670941</v>
+        <v>0.2512364700676378</v>
       </c>
       <c r="Q18">
-        <v>32.96493627733096</v>
+        <v>37.384355660754</v>
       </c>
       <c r="R18">
-        <v>32.96493627733096</v>
+        <v>336.459200946786</v>
       </c>
       <c r="S18">
-        <v>0.05977601190153177</v>
+        <v>0.05063503914911682</v>
       </c>
       <c r="T18">
-        <v>0.05977601190153177</v>
+        <v>0.05063503914911684</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>55.6289417036478</v>
+        <v>61.749762</v>
       </c>
       <c r="H19">
-        <v>55.6289417036478</v>
+        <v>185.249286</v>
       </c>
       <c r="I19">
-        <v>0.1923790093041059</v>
+        <v>0.2015433473312409</v>
       </c>
       <c r="J19">
-        <v>0.1923790093041059</v>
+        <v>0.201543347331241</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.308428564718512</v>
+        <v>0.3841676666666666</v>
       </c>
       <c r="N19">
-        <v>0.308428564718512</v>
+        <v>1.152503</v>
       </c>
       <c r="O19">
-        <v>0.1617232286348265</v>
+        <v>0.1594222304419173</v>
       </c>
       <c r="P19">
-        <v>0.1617232286348265</v>
+        <v>0.1594222304419173</v>
       </c>
       <c r="Q19">
-        <v>17.15755464646587</v>
+        <v>23.722261984762</v>
       </c>
       <c r="R19">
-        <v>17.15755464646587</v>
+        <v>213.500357862858</v>
       </c>
       <c r="S19">
-        <v>0.03111215450622934</v>
+        <v>0.03213048996227647</v>
       </c>
       <c r="T19">
-        <v>0.03111215450622934</v>
+        <v>0.03213048996227647</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>62.619790862442</v>
+        <v>63.361323</v>
       </c>
       <c r="H20">
-        <v>62.619790862442</v>
+        <v>190.083969</v>
       </c>
       <c r="I20">
-        <v>0.2165551412630405</v>
+        <v>0.2068032768896493</v>
       </c>
       <c r="J20">
-        <v>0.2165551412630405</v>
+        <v>0.2068032768896493</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.114460197996869</v>
+        <v>0.4567773333333333</v>
       </c>
       <c r="N20">
-        <v>0.114460197996869</v>
+        <v>1.370332</v>
       </c>
       <c r="O20">
-        <v>0.06001672635972985</v>
+        <v>0.1895538526892628</v>
       </c>
       <c r="P20">
-        <v>0.06001672635972985</v>
+        <v>0.1895538526892628</v>
       </c>
       <c r="Q20">
-        <v>7.16747366063764</v>
+        <v>28.942016156412</v>
       </c>
       <c r="R20">
-        <v>7.16747366063764</v>
+        <v>260.478145407708</v>
       </c>
       <c r="S20">
-        <v>0.01299693065497655</v>
+        <v>0.0392003578831974</v>
       </c>
       <c r="T20">
-        <v>0.01299693065497655</v>
+        <v>0.03920035788319741</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>62.619790862442</v>
+        <v>63.361323</v>
       </c>
       <c r="H21">
-        <v>62.619790862442</v>
+        <v>190.083969</v>
       </c>
       <c r="I21">
-        <v>0.2165551412630405</v>
+        <v>0.2068032768896493</v>
       </c>
       <c r="J21">
-        <v>0.2165551412630405</v>
+        <v>0.2068032768896493</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.145393928585552</v>
+        <v>0.1545113333333333</v>
       </c>
       <c r="N21">
-        <v>0.145393928585552</v>
+        <v>0.463534</v>
       </c>
       <c r="O21">
-        <v>0.07623669868650651</v>
+        <v>0.06411924668800315</v>
       </c>
       <c r="P21">
-        <v>0.07623669868650651</v>
+        <v>0.06411924668800315</v>
       </c>
       <c r="Q21">
-        <v>9.104537400696094</v>
+        <v>9.790042498494</v>
       </c>
       <c r="R21">
-        <v>9.104537400696094</v>
+        <v>88.110382486446</v>
       </c>
       <c r="S21">
-        <v>0.01650944905348427</v>
+        <v>0.01326007032677484</v>
       </c>
       <c r="T21">
-        <v>0.01650944905348427</v>
+        <v>0.01326007032677485</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>62.619790862442</v>
+        <v>63.361323</v>
       </c>
       <c r="H22">
-        <v>62.619790862442</v>
+        <v>190.083969</v>
       </c>
       <c r="I22">
-        <v>0.2165551412630405</v>
+        <v>0.2068032768896493</v>
       </c>
       <c r="J22">
-        <v>0.2165551412630405</v>
+        <v>0.2068032768896493</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.210709040717678</v>
+        <v>0.2309933333333333</v>
       </c>
       <c r="N22">
-        <v>0.210709040717678</v>
+        <v>0.6929799999999999</v>
       </c>
       <c r="O22">
-        <v>0.1104844047065162</v>
+        <v>0.09585781316980505</v>
       </c>
       <c r="P22">
-        <v>0.1104844047065162</v>
+        <v>0.09585781316980505</v>
       </c>
       <c r="Q22">
-        <v>13.19455606256677</v>
+        <v>14.63604320418</v>
       </c>
       <c r="R22">
-        <v>13.19455606256677</v>
+        <v>131.72438883762</v>
       </c>
       <c r="S22">
-        <v>0.02392596586858256</v>
+        <v>0.01982370987899146</v>
       </c>
       <c r="T22">
-        <v>0.02392596586858256</v>
+        <v>0.01982370987899147</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>62.619790862442</v>
+        <v>63.361323</v>
       </c>
       <c r="H23">
-        <v>62.619790862442</v>
+        <v>190.083969</v>
       </c>
       <c r="I23">
-        <v>0.2165551412630405</v>
+        <v>0.2068032768896493</v>
       </c>
       <c r="J23">
-        <v>0.2165551412630405</v>
+        <v>0.2068032768896493</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.535560500552094</v>
+        <v>0.577883</v>
       </c>
       <c r="N23">
-        <v>0.535560500552094</v>
+        <v>1.733649</v>
       </c>
       <c r="O23">
-        <v>0.2808189097453266</v>
+        <v>0.2398103869433741</v>
       </c>
       <c r="P23">
-        <v>0.2808189097453266</v>
+        <v>0.2398103869433741</v>
       </c>
       <c r="Q23">
-        <v>33.53668653875688</v>
+        <v>36.615431419209</v>
       </c>
       <c r="R23">
-        <v>33.53668653875688</v>
+        <v>329.538882772881</v>
       </c>
       <c r="S23">
-        <v>0.06081277866923224</v>
+        <v>0.04959357385206453</v>
       </c>
       <c r="T23">
-        <v>0.06081277866923224</v>
+        <v>0.04959357385206454</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>62.619790862442</v>
+        <v>63.361323</v>
       </c>
       <c r="H24">
-        <v>62.619790862442</v>
+        <v>190.083969</v>
       </c>
       <c r="I24">
-        <v>0.2165551412630405</v>
+        <v>0.2068032768896493</v>
       </c>
       <c r="J24">
-        <v>0.2165551412630405</v>
+        <v>0.2068032768896493</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.5925860760203771</v>
+        <v>0.605417</v>
       </c>
       <c r="N24">
-        <v>0.5925860760203771</v>
+        <v>1.816251</v>
       </c>
       <c r="O24">
-        <v>0.3107200318670941</v>
+        <v>0.2512364700676377</v>
       </c>
       <c r="P24">
-        <v>0.3107200318670941</v>
+        <v>0.2512364700676378</v>
       </c>
       <c r="Q24">
-        <v>37.10761614839117</v>
+        <v>38.360022086691</v>
       </c>
       <c r="R24">
-        <v>37.10761614839117</v>
+        <v>345.240198780219</v>
       </c>
       <c r="S24">
-        <v>0.06728802039423502</v>
+        <v>0.05195652528417578</v>
       </c>
       <c r="T24">
-        <v>0.06728802039423502</v>
+        <v>0.05195652528417579</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>62.619790862442</v>
+        <v>63.361323</v>
       </c>
       <c r="H25">
-        <v>62.619790862442</v>
+        <v>190.083969</v>
       </c>
       <c r="I25">
-        <v>0.2165551412630405</v>
+        <v>0.2068032768896493</v>
       </c>
       <c r="J25">
-        <v>0.2165551412630405</v>
+        <v>0.2068032768896493</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.308428564718512</v>
+        <v>0.3841676666666666</v>
       </c>
       <c r="N25">
-        <v>0.308428564718512</v>
+        <v>1.152503</v>
       </c>
       <c r="O25">
-        <v>0.1617232286348265</v>
+        <v>0.1594222304419173</v>
       </c>
       <c r="P25">
-        <v>0.1617232286348265</v>
+        <v>0.1594222304419173</v>
       </c>
       <c r="Q25">
-        <v>19.31373221867638</v>
+        <v>24.341371613823</v>
       </c>
       <c r="R25">
-        <v>19.31373221867638</v>
+        <v>219.072344524407</v>
       </c>
       <c r="S25">
-        <v>0.03502199662252986</v>
+        <v>0.0329690396644453</v>
       </c>
       <c r="T25">
-        <v>0.03502199662252986</v>
+        <v>0.0329690396644453</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>38.43525836184</v>
+        <v>40.18492533333333</v>
       </c>
       <c r="H26">
-        <v>38.43525836184</v>
+        <v>120.554776</v>
       </c>
       <c r="I26">
-        <v>0.1329188853778477</v>
+        <v>0.1311584709255395</v>
       </c>
       <c r="J26">
-        <v>0.1329188853778477</v>
+        <v>0.1311584709255395</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.114460197996869</v>
+        <v>0.4567773333333333</v>
       </c>
       <c r="N26">
-        <v>0.114460197996869</v>
+        <v>1.370332</v>
       </c>
       <c r="O26">
-        <v>0.06001672635972985</v>
+        <v>0.1895538526892628</v>
       </c>
       <c r="P26">
-        <v>0.06001672635972985</v>
+        <v>0.1895538526892628</v>
       </c>
       <c r="Q26">
-        <v>4.399307282157022</v>
+        <v>18.35556303395911</v>
       </c>
       <c r="R26">
-        <v>4.399307282157022</v>
+        <v>165.200067305632</v>
       </c>
       <c r="S26">
-        <v>0.00797735637176258</v>
+        <v>0.02486159347676866</v>
       </c>
       <c r="T26">
-        <v>0.00797735637176258</v>
+        <v>0.02486159347676867</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>38.43525836184</v>
+        <v>40.18492533333333</v>
       </c>
       <c r="H27">
-        <v>38.43525836184</v>
+        <v>120.554776</v>
       </c>
       <c r="I27">
-        <v>0.1329188853778477</v>
+        <v>0.1311584709255395</v>
       </c>
       <c r="J27">
-        <v>0.1329188853778477</v>
+        <v>0.1311584709255395</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>0.145393928585552</v>
+        <v>0.1545113333333333</v>
       </c>
       <c r="N27">
-        <v>0.145393928585552</v>
+        <v>0.463534</v>
       </c>
       <c r="O27">
-        <v>0.07623669868650651</v>
+        <v>0.06411924668800315</v>
       </c>
       <c r="P27">
-        <v>0.07623669868650651</v>
+        <v>0.06411924668800315</v>
       </c>
       <c r="Q27">
-        <v>5.588253209428605</v>
+        <v>6.209026393153778</v>
       </c>
       <c r="R27">
-        <v>5.588253209428605</v>
+        <v>55.881237538384</v>
       </c>
       <c r="S27">
-        <v>0.01013329701429727</v>
+        <v>0.008409782352495954</v>
       </c>
       <c r="T27">
-        <v>0.01013329701429727</v>
+        <v>0.008409782352495955</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>38.43525836184</v>
+        <v>40.18492533333333</v>
       </c>
       <c r="H28">
-        <v>38.43525836184</v>
+        <v>120.554776</v>
       </c>
       <c r="I28">
-        <v>0.1329188853778477</v>
+        <v>0.1311584709255395</v>
       </c>
       <c r="J28">
-        <v>0.1329188853778477</v>
+        <v>0.1311584709255395</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.210709040717678</v>
+        <v>0.2309933333333333</v>
       </c>
       <c r="N28">
-        <v>0.210709040717678</v>
+        <v>0.6929799999999999</v>
       </c>
       <c r="O28">
-        <v>0.1104844047065162</v>
+        <v>0.09585781316980505</v>
       </c>
       <c r="P28">
-        <v>0.1104844047065162</v>
+        <v>0.09585781316980505</v>
       </c>
       <c r="Q28">
-        <v>8.098656419159418</v>
+        <v>9.282449852497777</v>
       </c>
       <c r="R28">
-        <v>8.098656419159418</v>
+        <v>83.54204867247999</v>
       </c>
       <c r="S28">
-        <v>0.01468546392522516</v>
+        <v>0.01257256420161767</v>
       </c>
       <c r="T28">
-        <v>0.01468546392522516</v>
+        <v>0.01257256420161767</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>38.43525836184</v>
+        <v>40.18492533333333</v>
       </c>
       <c r="H29">
-        <v>38.43525836184</v>
+        <v>120.554776</v>
       </c>
       <c r="I29">
-        <v>0.1329188853778477</v>
+        <v>0.1311584709255395</v>
       </c>
       <c r="J29">
-        <v>0.1329188853778477</v>
+        <v>0.1311584709255395</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.535560500552094</v>
+        <v>0.577883</v>
       </c>
       <c r="N29">
-        <v>0.535560500552094</v>
+        <v>1.733649</v>
       </c>
       <c r="O29">
-        <v>0.2808189097453266</v>
+        <v>0.2398103869433741</v>
       </c>
       <c r="P29">
-        <v>0.2808189097453266</v>
+        <v>0.2398103869433741</v>
       </c>
       <c r="Q29">
-        <v>20.58440620711609</v>
+        <v>23.22218520640267</v>
       </c>
       <c r="R29">
-        <v>20.58440620711609</v>
+        <v>208.999666857624</v>
       </c>
       <c r="S29">
-        <v>0.03732613647637122</v>
+        <v>0.0314531636635549</v>
       </c>
       <c r="T29">
-        <v>0.03732613647637122</v>
+        <v>0.03145316366355491</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>38.43525836184</v>
+        <v>40.18492533333333</v>
       </c>
       <c r="H30">
-        <v>38.43525836184</v>
+        <v>120.554776</v>
       </c>
       <c r="I30">
-        <v>0.1329188853778477</v>
+        <v>0.1311584709255395</v>
       </c>
       <c r="J30">
-        <v>0.1329188853778477</v>
+        <v>0.1311584709255395</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.5925860760203771</v>
+        <v>0.605417</v>
       </c>
       <c r="N30">
-        <v>0.5925860760203771</v>
+        <v>1.816251</v>
       </c>
       <c r="O30">
-        <v>0.3107200318670941</v>
+        <v>0.2512364700676377</v>
       </c>
       <c r="P30">
-        <v>0.3107200318670941</v>
+        <v>0.2512364700676378</v>
       </c>
       <c r="Q30">
-        <v>22.77619893347215</v>
+        <v>24.32863694053066</v>
       </c>
       <c r="R30">
-        <v>22.77619893347215</v>
+        <v>218.957732464776</v>
       </c>
       <c r="S30">
-        <v>0.04130056030034346</v>
+        <v>0.03295179125480143</v>
       </c>
       <c r="T30">
-        <v>0.04130056030034346</v>
+        <v>0.03295179125480144</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>38.43525836184</v>
+        <v>40.18492533333333</v>
       </c>
       <c r="H31">
-        <v>38.43525836184</v>
+        <v>120.554776</v>
       </c>
       <c r="I31">
-        <v>0.1329188853778477</v>
+        <v>0.1311584709255395</v>
       </c>
       <c r="J31">
-        <v>0.1329188853778477</v>
+        <v>0.1311584709255395</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.308428564718512</v>
+        <v>0.3841676666666666</v>
       </c>
       <c r="N31">
-        <v>0.308428564718512</v>
+        <v>1.152503</v>
       </c>
       <c r="O31">
-        <v>0.1617232286348265</v>
+        <v>0.1594222304419173</v>
       </c>
       <c r="P31">
-        <v>0.1617232286348265</v>
+        <v>0.1594222304419173</v>
       </c>
       <c r="Q31">
-        <v>11.8545315711275</v>
+        <v>15.43774900048089</v>
       </c>
       <c r="R31">
-        <v>11.8545315711275</v>
+        <v>138.939741004328</v>
       </c>
       <c r="S31">
-        <v>0.02149607128984796</v>
+        <v>0.02090957597630086</v>
       </c>
       <c r="T31">
-        <v>0.02149607128984796</v>
+        <v>0.02090957597630086</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>14.2434236682336</v>
+        <v>15.710799</v>
       </c>
       <c r="H32">
-        <v>14.2434236682336</v>
+        <v>47.132397</v>
       </c>
       <c r="I32">
-        <v>0.04925737665460123</v>
+        <v>0.05127804411146253</v>
       </c>
       <c r="J32">
-        <v>0.04925737665460123</v>
+        <v>0.05127804411146254</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.114460197996869</v>
+        <v>0.4567773333333333</v>
       </c>
       <c r="N32">
-        <v>0.114460197996869</v>
+        <v>1.370332</v>
       </c>
       <c r="O32">
-        <v>0.06001672635972985</v>
+        <v>0.1895538526892628</v>
       </c>
       <c r="P32">
-        <v>0.06001672635972985</v>
+        <v>0.1895538526892628</v>
       </c>
       <c r="Q32">
-        <v>1.630305093219308</v>
+        <v>7.176336871756</v>
       </c>
       <c r="R32">
-        <v>1.630305093219308</v>
+        <v>64.58703184580399</v>
       </c>
       <c r="S32">
-        <v>0.002956266495877347</v>
+        <v>0.009719950819697686</v>
       </c>
       <c r="T32">
-        <v>0.002956266495877347</v>
+        <v>0.009719950819697686</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>14.2434236682336</v>
+        <v>15.710799</v>
       </c>
       <c r="H33">
-        <v>14.2434236682336</v>
+        <v>47.132397</v>
       </c>
       <c r="I33">
-        <v>0.04925737665460123</v>
+        <v>0.05127804411146253</v>
       </c>
       <c r="J33">
-        <v>0.04925737665460123</v>
+        <v>0.05127804411146254</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>0.145393928585552</v>
+        <v>0.1545113333333333</v>
       </c>
       <c r="N33">
-        <v>0.145393928585552</v>
+        <v>0.463534</v>
       </c>
       <c r="O33">
-        <v>0.07623669868650651</v>
+        <v>0.06411924668800315</v>
       </c>
       <c r="P33">
-        <v>0.07623669868650651</v>
+        <v>0.06411924668800315</v>
       </c>
       <c r="Q33">
-        <v>2.070907323632917</v>
+        <v>2.427496501222</v>
       </c>
       <c r="R33">
-        <v>2.070907323632917</v>
+        <v>21.847468510998</v>
       </c>
       <c r="S33">
-        <v>0.003755219782104594</v>
+        <v>0.003287909560061173</v>
       </c>
       <c r="T33">
-        <v>0.003755219782104594</v>
+        <v>0.003287909560061174</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>14.2434236682336</v>
+        <v>15.710799</v>
       </c>
       <c r="H34">
-        <v>14.2434236682336</v>
+        <v>47.132397</v>
       </c>
       <c r="I34">
-        <v>0.04925737665460123</v>
+        <v>0.05127804411146253</v>
       </c>
       <c r="J34">
-        <v>0.04925737665460123</v>
+        <v>0.05127804411146254</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.210709040717678</v>
+        <v>0.2309933333333333</v>
       </c>
       <c r="N34">
-        <v>0.210709040717678</v>
+        <v>0.6929799999999999</v>
       </c>
       <c r="O34">
-        <v>0.1104844047065162</v>
+        <v>0.09585781316980505</v>
       </c>
       <c r="P34">
-        <v>0.1104844047065162</v>
+        <v>0.09585781316980505</v>
       </c>
       <c r="Q34">
-        <v>3.001218137668972</v>
+        <v>3.629089830339999</v>
       </c>
       <c r="R34">
-        <v>3.001218137668972</v>
+        <v>32.66180847305999</v>
       </c>
       <c r="S34">
-        <v>0.005442171937088267</v>
+        <v>0.004915401172149596</v>
       </c>
       <c r="T34">
-        <v>0.005442171937088267</v>
+        <v>0.004915401172149597</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>14.2434236682336</v>
+        <v>15.710799</v>
       </c>
       <c r="H35">
-        <v>14.2434236682336</v>
+        <v>47.132397</v>
       </c>
       <c r="I35">
-        <v>0.04925737665460123</v>
+        <v>0.05127804411146253</v>
       </c>
       <c r="J35">
-        <v>0.04925737665460123</v>
+        <v>0.05127804411146254</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.535560500552094</v>
+        <v>0.577883</v>
       </c>
       <c r="N35">
-        <v>0.535560500552094</v>
+        <v>1.733649</v>
       </c>
       <c r="O35">
-        <v>0.2808189097453266</v>
+        <v>0.2398103869433741</v>
       </c>
       <c r="P35">
-        <v>0.2808189097453266</v>
+        <v>0.2398103869433741</v>
       </c>
       <c r="Q35">
-        <v>7.62821510933473</v>
+        <v>9.079003658517001</v>
       </c>
       <c r="R35">
-        <v>7.62821510933473</v>
+        <v>81.71103292665299</v>
       </c>
       <c r="S35">
-        <v>0.01383240280906002</v>
+        <v>0.01229700760006923</v>
       </c>
       <c r="T35">
-        <v>0.01383240280906002</v>
+        <v>0.01229700760006924</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>14.2434236682336</v>
+        <v>15.710799</v>
       </c>
       <c r="H36">
-        <v>14.2434236682336</v>
+        <v>47.132397</v>
       </c>
       <c r="I36">
-        <v>0.04925737665460123</v>
+        <v>0.05127804411146253</v>
       </c>
       <c r="J36">
-        <v>0.04925737665460123</v>
+        <v>0.05127804411146254</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.5925860760203771</v>
+        <v>0.605417</v>
       </c>
       <c r="N36">
-        <v>0.5925860760203771</v>
+        <v>1.816251</v>
       </c>
       <c r="O36">
-        <v>0.3107200318670941</v>
+        <v>0.2512364700676377</v>
       </c>
       <c r="P36">
-        <v>0.3107200318670941</v>
+        <v>0.2512364700676378</v>
       </c>
       <c r="Q36">
-        <v>8.440454540654313</v>
+        <v>9.511584798183</v>
       </c>
       <c r="R36">
-        <v>8.440454540654313</v>
+        <v>85.60426318364699</v>
       </c>
       <c r="S36">
-        <v>0.01530525364380715</v>
+        <v>0.01288291479453646</v>
       </c>
       <c r="T36">
-        <v>0.01530525364380715</v>
+        <v>0.01288291479453647</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>14.2434236682336</v>
+        <v>15.710799</v>
       </c>
       <c r="H37">
-        <v>14.2434236682336</v>
+        <v>47.132397</v>
       </c>
       <c r="I37">
-        <v>0.04925737665460123</v>
+        <v>0.05127804411146253</v>
       </c>
       <c r="J37">
-        <v>0.04925737665460123</v>
+        <v>0.05127804411146254</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.308428564718512</v>
+        <v>0.3841676666666666</v>
       </c>
       <c r="N37">
-        <v>0.308428564718512</v>
+        <v>1.152503</v>
       </c>
       <c r="O37">
-        <v>0.1617232286348265</v>
+        <v>0.1594222304419173</v>
       </c>
       <c r="P37">
-        <v>0.1617232286348265</v>
+        <v>0.1594222304419173</v>
       </c>
       <c r="Q37">
-        <v>4.393078718670973</v>
+        <v>6.035580993298999</v>
       </c>
       <c r="R37">
-        <v>4.393078718670973</v>
+        <v>54.32022893969099</v>
       </c>
       <c r="S37">
-        <v>0.007966061986663843</v>
+        <v>0.008174860164948379</v>
       </c>
       <c r="T37">
-        <v>0.007966061986663843</v>
+        <v>0.008174860164948379</v>
       </c>
     </row>
   </sheetData>
